--- a/natmiOut/OldD7/LR-pairs_lrc2p/Slit3-Robo1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Slit3-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.29442449108908</v>
+        <v>3.590118666666667</v>
       </c>
       <c r="H2">
-        <v>2.29442449108908</v>
+        <v>10.770356</v>
       </c>
       <c r="I2">
-        <v>0.02774446110866468</v>
+        <v>0.03935865391742773</v>
       </c>
       <c r="J2">
-        <v>0.02774446110866468</v>
+        <v>0.03935865391742773</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>24.7676383478419</v>
+        <v>0.4133443333333333</v>
       </c>
       <c r="N2">
-        <v>24.7676383478419</v>
+        <v>1.240033</v>
       </c>
       <c r="O2">
-        <v>0.8588943566630195</v>
+        <v>0.01404462990513909</v>
       </c>
       <c r="P2">
-        <v>0.8588943566630195</v>
+        <v>0.01404462990513909</v>
       </c>
       <c r="Q2">
-        <v>56.82747601172553</v>
+        <v>1.483955206860889</v>
       </c>
       <c r="R2">
-        <v>56.82747601172553</v>
+        <v>13.355596861748</v>
       </c>
       <c r="S2">
-        <v>0.02382956107488872</v>
+        <v>0.0005527777278347254</v>
       </c>
       <c r="T2">
-        <v>0.02382956107488872</v>
+        <v>0.0005527777278347254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.29442449108908</v>
+        <v>3.590118666666667</v>
       </c>
       <c r="H3">
-        <v>2.29442449108908</v>
+        <v>10.770356</v>
       </c>
       <c r="I3">
-        <v>0.02774446110866468</v>
+        <v>0.03935865391742773</v>
       </c>
       <c r="J3">
-        <v>0.02774446110866468</v>
+        <v>0.03935865391742773</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.06901444385794</v>
+        <v>24.84824866666667</v>
       </c>
       <c r="N3">
-        <v>4.06901444385794</v>
+        <v>74.544746</v>
       </c>
       <c r="O3">
-        <v>0.1411056433369805</v>
+        <v>0.8442947638833787</v>
       </c>
       <c r="P3">
-        <v>0.1411056433369805</v>
+        <v>0.8442947638833787</v>
       </c>
       <c r="Q3">
-        <v>9.336046394582869</v>
+        <v>89.20816137217511</v>
       </c>
       <c r="R3">
-        <v>9.336046394582869</v>
+        <v>802.873452349576</v>
       </c>
       <c r="S3">
-        <v>0.003914900033775964</v>
+        <v>0.03323030541598226</v>
       </c>
       <c r="T3">
-        <v>0.003914900033775964</v>
+        <v>0.03323030541598226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>76.39152765687621</v>
+        <v>3.590118666666667</v>
       </c>
       <c r="H4">
-        <v>76.39152765687621</v>
+        <v>10.770356</v>
       </c>
       <c r="I4">
-        <v>0.9237356802714665</v>
+        <v>0.03935865391742773</v>
       </c>
       <c r="J4">
-        <v>0.9237356802714665</v>
+        <v>0.03935865391742773</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>24.7676383478419</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N4">
-        <v>24.7676383478419</v>
+        <v>0.024861</v>
       </c>
       <c r="O4">
-        <v>0.8588943566630195</v>
+        <v>0.0002815760097285016</v>
       </c>
       <c r="P4">
-        <v>0.8588943566630195</v>
+        <v>0.0002815760097285015</v>
       </c>
       <c r="Q4">
-        <v>1892.037729844672</v>
+        <v>0.02975131339066667</v>
       </c>
       <c r="R4">
-        <v>1892.037729844672</v>
+        <v>0.267761820516</v>
       </c>
       <c r="S4">
-        <v>0.7933913628334378</v>
+        <v>1.108245271835436E-05</v>
       </c>
       <c r="T4">
-        <v>0.7933913628334378</v>
+        <v>1.108245271835436E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>76.39152765687621</v>
+        <v>3.590118666666667</v>
       </c>
       <c r="H5">
-        <v>76.39152765687621</v>
+        <v>10.770356</v>
       </c>
       <c r="I5">
-        <v>0.9237356802714665</v>
+        <v>0.03935865391742773</v>
       </c>
       <c r="J5">
-        <v>0.9237356802714665</v>
+        <v>0.03935865391742773</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.06901444385794</v>
+        <v>4.160894333333333</v>
       </c>
       <c r="N5">
-        <v>4.06901444385794</v>
+        <v>12.482683</v>
       </c>
       <c r="O5">
-        <v>0.1411056433369805</v>
+        <v>0.1413790302017538</v>
       </c>
       <c r="P5">
-        <v>0.1411056433369805</v>
+        <v>0.1413790302017538</v>
       </c>
       <c r="Q5">
-        <v>310.8382294242026</v>
+        <v>14.93810441612755</v>
       </c>
       <c r="R5">
-        <v>310.8382294242026</v>
+        <v>134.442939745148</v>
       </c>
       <c r="S5">
-        <v>0.1303443174380286</v>
+        <v>0.005564488320892391</v>
       </c>
       <c r="T5">
-        <v>0.1303443174380286</v>
+        <v>0.005564488320892391</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0362981585453096</v>
+        <v>76.92488366666667</v>
       </c>
       <c r="H6">
-        <v>0.0362981585453096</v>
+        <v>230.774651</v>
       </c>
       <c r="I6">
-        <v>0.0004389217653436335</v>
+        <v>0.8433314202078528</v>
       </c>
       <c r="J6">
-        <v>0.0004389217653436335</v>
+        <v>0.8433314202078527</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>24.7676383478419</v>
+        <v>0.4133443333333333</v>
       </c>
       <c r="N6">
-        <v>24.7676383478419</v>
+        <v>1.240033</v>
       </c>
       <c r="O6">
-        <v>0.8588943566630195</v>
+        <v>0.01404462990513909</v>
       </c>
       <c r="P6">
-        <v>0.8588943566630195</v>
+        <v>0.01404462990513909</v>
       </c>
       <c r="Q6">
-        <v>0.8990196635428552</v>
+        <v>31.79646475594256</v>
       </c>
       <c r="R6">
-        <v>0.8990196635428552</v>
+        <v>286.168182803483</v>
       </c>
       <c r="S6">
-        <v>0.0003769874272702169</v>
+        <v>0.01184427768419463</v>
       </c>
       <c r="T6">
-        <v>0.0003769874272702169</v>
+        <v>0.01184427768419463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0362981585453096</v>
+        <v>76.92488366666667</v>
       </c>
       <c r="H7">
-        <v>0.0362981585453096</v>
+        <v>230.774651</v>
       </c>
       <c r="I7">
-        <v>0.0004389217653436335</v>
+        <v>0.8433314202078528</v>
       </c>
       <c r="J7">
-        <v>0.0004389217653436335</v>
+        <v>0.8433314202078527</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.06901444385794</v>
+        <v>24.84824866666667</v>
       </c>
       <c r="N7">
-        <v>4.06901444385794</v>
+        <v>74.544746</v>
       </c>
       <c r="O7">
-        <v>0.1411056433369805</v>
+        <v>0.8442947638833787</v>
       </c>
       <c r="P7">
-        <v>0.1411056433369805</v>
+        <v>0.8442947638833787</v>
       </c>
       <c r="Q7">
-        <v>0.1476977314063103</v>
+        <v>1911.448638003739</v>
       </c>
       <c r="R7">
-        <v>0.1476977314063103</v>
+        <v>17203.03774203365</v>
       </c>
       <c r="S7">
-        <v>6.193433807341659E-05</v>
+        <v>0.7120203022998235</v>
       </c>
       <c r="T7">
-        <v>6.193433807341659E-05</v>
+        <v>0.7120203022998234</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.97621992517554</v>
+        <v>76.92488366666667</v>
       </c>
       <c r="H8">
-        <v>3.97621992517554</v>
+        <v>230.774651</v>
       </c>
       <c r="I8">
-        <v>0.04808093685452529</v>
+        <v>0.8433314202078528</v>
       </c>
       <c r="J8">
-        <v>0.04808093685452529</v>
+        <v>0.8433314202078527</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>24.7676383478419</v>
+        <v>0.008287000000000001</v>
       </c>
       <c r="N8">
-        <v>24.7676383478419</v>
+        <v>0.024861</v>
       </c>
       <c r="O8">
-        <v>0.8588943566630195</v>
+        <v>0.0002815760097285016</v>
       </c>
       <c r="P8">
-        <v>0.8588943566630195</v>
+        <v>0.0002815760097285015</v>
       </c>
       <c r="Q8">
-        <v>98.48157709823076</v>
+        <v>0.6374765109456668</v>
       </c>
       <c r="R8">
-        <v>98.48157709823076</v>
+        <v>5.737288598511</v>
       </c>
       <c r="S8">
-        <v>0.04129644532742276</v>
+        <v>0.0002374618961807974</v>
       </c>
       <c r="T8">
-        <v>0.04129644532742276</v>
+        <v>0.0002374618961807974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.97621992517554</v>
+        <v>76.92488366666667</v>
       </c>
       <c r="H9">
-        <v>3.97621992517554</v>
+        <v>230.774651</v>
       </c>
       <c r="I9">
-        <v>0.04808093685452529</v>
+        <v>0.8433314202078528</v>
       </c>
       <c r="J9">
-        <v>0.04808093685452529</v>
+        <v>0.8433314202078527</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.06901444385794</v>
+        <v>4.160894333333333</v>
       </c>
       <c r="N9">
-        <v>4.06901444385794</v>
+        <v>12.482683</v>
       </c>
       <c r="O9">
-        <v>0.1411056433369805</v>
+        <v>0.1413790302017538</v>
       </c>
       <c r="P9">
-        <v>0.1411056433369805</v>
+        <v>0.1413790302017538</v>
       </c>
       <c r="Q9">
-        <v>16.17929630749501</v>
+        <v>320.0763125409592</v>
       </c>
       <c r="R9">
-        <v>16.17929630749501</v>
+        <v>2880.686812868633</v>
       </c>
       <c r="S9">
-        <v>0.006784491527102525</v>
+        <v>0.1192293783276539</v>
       </c>
       <c r="T9">
-        <v>0.006784491527102525</v>
+        <v>0.1192293783276539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.041643</v>
+      </c>
+      <c r="H10">
+        <v>0.124929</v>
+      </c>
+      <c r="I10">
+        <v>0.0004565343313861054</v>
+      </c>
+      <c r="J10">
+        <v>0.0004565343313861054</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.4133443333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.240033</v>
+      </c>
+      <c r="O10">
+        <v>0.01404462990513909</v>
+      </c>
+      <c r="P10">
+        <v>0.01404462990513909</v>
+      </c>
+      <c r="Q10">
+        <v>0.017212898073</v>
+      </c>
+      <c r="R10">
+        <v>0.154916082657</v>
+      </c>
+      <c r="S10">
+        <v>6.411855723307977E-06</v>
+      </c>
+      <c r="T10">
+        <v>6.411855723307977E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.041643</v>
+      </c>
+      <c r="H11">
+        <v>0.124929</v>
+      </c>
+      <c r="I11">
+        <v>0.0004565343313861054</v>
+      </c>
+      <c r="J11">
+        <v>0.0004565343313861054</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>24.84824866666667</v>
+      </c>
+      <c r="N11">
+        <v>74.544746</v>
+      </c>
+      <c r="O11">
+        <v>0.8442947638833787</v>
+      </c>
+      <c r="P11">
+        <v>0.8442947638833787</v>
+      </c>
+      <c r="Q11">
+        <v>1.034755619226</v>
+      </c>
+      <c r="R11">
+        <v>9.312800573034</v>
+      </c>
+      <c r="S11">
+        <v>0.000385449545522288</v>
+      </c>
+      <c r="T11">
+        <v>0.000385449545522288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.041643</v>
+      </c>
+      <c r="H12">
+        <v>0.124929</v>
+      </c>
+      <c r="I12">
+        <v>0.0004565343313861054</v>
+      </c>
+      <c r="J12">
+        <v>0.0004565343313861054</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.008287000000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.024861</v>
+      </c>
+      <c r="O12">
+        <v>0.0002815760097285016</v>
+      </c>
+      <c r="P12">
+        <v>0.0002815760097285015</v>
+      </c>
+      <c r="Q12">
+        <v>0.000345095541</v>
+      </c>
+      <c r="R12">
+        <v>0.003105859869</v>
+      </c>
+      <c r="S12">
+        <v>1.28549115335769E-07</v>
+      </c>
+      <c r="T12">
+        <v>1.28549115335769E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.041643</v>
+      </c>
+      <c r="H13">
+        <v>0.124929</v>
+      </c>
+      <c r="I13">
+        <v>0.0004565343313861054</v>
+      </c>
+      <c r="J13">
+        <v>0.0004565343313861054</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.160894333333333</v>
+      </c>
+      <c r="N13">
+        <v>12.482683</v>
+      </c>
+      <c r="O13">
+        <v>0.1413790302017538</v>
+      </c>
+      <c r="P13">
+        <v>0.1413790302017538</v>
+      </c>
+      <c r="Q13">
+        <v>0.173272122723</v>
+      </c>
+      <c r="R13">
+        <v>1.559449104507</v>
+      </c>
+      <c r="S13">
+        <v>6.454438102517368E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.454438102517368E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.65883866666667</v>
+      </c>
+      <c r="H14">
+        <v>31.976516</v>
+      </c>
+      <c r="I14">
+        <v>0.1168533915433334</v>
+      </c>
+      <c r="J14">
+        <v>0.1168533915433334</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.4133443333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.240033</v>
+      </c>
+      <c r="O14">
+        <v>0.01404462990513909</v>
+      </c>
+      <c r="P14">
+        <v>0.01404462990513909</v>
+      </c>
+      <c r="Q14">
+        <v>4.405770562780888</v>
+      </c>
+      <c r="R14">
+        <v>39.65193506502799</v>
+      </c>
+      <c r="S14">
+        <v>0.001641162637386428</v>
+      </c>
+      <c r="T14">
+        <v>0.001641162637386428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.65883866666667</v>
+      </c>
+      <c r="H15">
+        <v>31.976516</v>
+      </c>
+      <c r="I15">
+        <v>0.1168533915433334</v>
+      </c>
+      <c r="J15">
+        <v>0.1168533915433334</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>24.84824866666667</v>
+      </c>
+      <c r="N15">
+        <v>74.544746</v>
+      </c>
+      <c r="O15">
+        <v>0.8442947638833787</v>
+      </c>
+      <c r="P15">
+        <v>0.8442947638833787</v>
+      </c>
+      <c r="Q15">
+        <v>264.8534736872151</v>
+      </c>
+      <c r="R15">
+        <v>2383.681263184936</v>
+      </c>
+      <c r="S15">
+        <v>0.0986587066220507</v>
+      </c>
+      <c r="T15">
+        <v>0.09865870662205069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>10.65883866666667</v>
+      </c>
+      <c r="H16">
+        <v>31.976516</v>
+      </c>
+      <c r="I16">
+        <v>0.1168533915433334</v>
+      </c>
+      <c r="J16">
+        <v>0.1168533915433334</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.008287000000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.024861</v>
+      </c>
+      <c r="O16">
+        <v>0.0002815760097285016</v>
+      </c>
+      <c r="P16">
+        <v>0.0002815760097285015</v>
+      </c>
+      <c r="Q16">
+        <v>0.08832979603066667</v>
+      </c>
+      <c r="R16">
+        <v>0.7949681642759999</v>
+      </c>
+      <c r="S16">
+        <v>3.290311171401406E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.290311171401405E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>10.65883866666667</v>
+      </c>
+      <c r="H17">
+        <v>31.976516</v>
+      </c>
+      <c r="I17">
+        <v>0.1168533915433334</v>
+      </c>
+      <c r="J17">
+        <v>0.1168533915433334</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.160894333333333</v>
+      </c>
+      <c r="N17">
+        <v>12.482683</v>
+      </c>
+      <c r="O17">
+        <v>0.1413790302017538</v>
+      </c>
+      <c r="P17">
+        <v>0.1413790302017538</v>
+      </c>
+      <c r="Q17">
+        <v>44.35030140804755</v>
+      </c>
+      <c r="R17">
+        <v>399.1527126724279</v>
+      </c>
+      <c r="S17">
+        <v>0.0165206191721823</v>
+      </c>
+      <c r="T17">
+        <v>0.0165206191721823</v>
       </c>
     </row>
   </sheetData>
